--- a/cbrunner/Parameters/Parameters_OnTheFly.xlsx
+++ b/cbrunner/Parameters/Parameters_OnTheFly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048CFD15-B67A-4F3A-A033-EA6B9BBF8DD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F4BDD-6298-40F2-B949-BD8F175FB905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +452,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.04</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_OnTheFly.xlsx
+++ b/cbrunner/Parameters/Parameters_OnTheFly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F4BDD-6298-40F2-B949-BD8F175FB905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A6DA4B-1F64-46F7-9794-E08D0132292C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
+    <workbookView xWindow="8400" yWindow="852" windowWidth="13788" windowHeight="11208" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>OTF_Pa_Harvest_Inflection</t>
-  </si>
-  <si>
-    <t>OTF_Pa_Harvest_Shape</t>
-  </si>
-  <si>
-    <t>OTF_Pa_Harvest_Sat</t>
+    <t>Pa_Harvest_Sat</t>
+  </si>
+  <si>
+    <t>Pa_Harvest_Inflection</t>
+  </si>
+  <si>
+    <t>Pa_Harvest_Shape</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,7 +441,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>0.03</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>400</v>
@@ -457,7 +457,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-0.04</v>

--- a/cbrunner/Parameters/Parameters_OnTheFly.xlsx
+++ b/cbrunner/Parameters/Parameters_OnTheFly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A6DA4B-1F64-46F7-9794-E08D0132292C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB71170-9018-448B-B6D1-4CDFC380AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="852" windowWidth="13788" windowHeight="11208" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/cbrunner/Parameters/Parameters_OnTheFly.xlsx
+++ b/cbrunner/Parameters/Parameters_OnTheFly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB71170-9018-448B-B6D1-4CDFC380AC67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30494768-0897-4E6A-B9AE-096D304D6DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Pa_Harvest_Shape</t>
+  </si>
+  <si>
+    <t>Pa Breakup Inflection</t>
+  </si>
+  <si>
+    <t>Pa Breakup Saturation</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADD9834-BC2E-4E59-BBEA-2B1931149755}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,6 +469,22 @@
         <v>-0.04</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-0.04</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/cbrunner/Parameters/Parameters_OnTheFly.xlsx
+++ b/cbrunner/Parameters/Parameters_OnTheFly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30494768-0897-4E6A-B9AE-096D304D6DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A64C5-1E9C-4CA0-9C89-871ECC894FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="14616" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
+    <workbookView xWindow="1320" yWindow="930" windowWidth="13650" windowHeight="11775" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -53,10 +53,46 @@
     <t>Pa_Harvest_Shape</t>
   </si>
   <si>
-    <t>Pa Breakup Inflection</t>
-  </si>
-  <si>
-    <t>Pa Breakup Saturation</t>
+    <t>Wind Inflection</t>
+  </si>
+  <si>
+    <t>Wind Saturation</t>
+  </si>
+  <si>
+    <t>Wind Shape</t>
+  </si>
+  <si>
+    <t>Disease Saturation</t>
+  </si>
+  <si>
+    <t>Disease Inflection</t>
+  </si>
+  <si>
+    <t>Disease Shape</t>
+  </si>
+  <si>
+    <t>IBM Pareto Shape</t>
+  </si>
+  <si>
+    <t>IBM Pareto Loc</t>
+  </si>
+  <si>
+    <t>IBM Pareto Scale</t>
+  </si>
+  <si>
+    <t>IBM Pareto Mort</t>
+  </si>
+  <si>
+    <t>Frost Pareto Shape</t>
+  </si>
+  <si>
+    <t>Frost Pareto Loc</t>
+  </si>
+  <si>
+    <t>Frost Pareto Scale</t>
+  </si>
+  <si>
+    <t>Frost Pareto Mort</t>
   </si>
 </sst>
 </file>
@@ -423,18 +459,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADD9834-BC2E-4E59-BBEA-2B1931149755}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -445,44 +481,191 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>400</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>-0.04</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
       <c r="B6">
+        <v>450</v>
+      </c>
+      <c r="C6">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>-0.04</v>
+      </c>
+      <c r="C7">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.75</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>450</v>
+      </c>
+      <c r="C9">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>-0.04</v>
+      </c>
+      <c r="C10">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1.8</v>
+      </c>
+      <c r="C11">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>-1E-3</v>
+      </c>
+      <c r="C12">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>0.85</v>
+      </c>
+      <c r="C14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>3.25</v>
+      </c>
+      <c r="C15">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="C16">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="C17">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>0.05</v>
+      </c>
+      <c r="C18">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/cbrunner/Parameters/Parameters_OnTheFly.xlsx
+++ b/cbrunner/Parameters/Parameters_OnTheFly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A64C5-1E9C-4CA0-9C89-871ECC894FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE0CCBA-B85B-4085-B0AB-A82642D665DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="930" windowWidth="13650" windowHeight="11775" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -462,15 +462,15 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -503,84 +503,84 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.04</v>
+        <v>-0.02</v>
       </c>
       <c r="C4">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="C7">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="C9">
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="C10">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -591,7 +591,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -602,7 +602,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -613,7 +613,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -624,7 +624,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -635,7 +635,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -646,7 +646,7 @@
         <v>-5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -657,7 +657,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>

--- a/cbrunner/Parameters/Parameters_OnTheFly.xlsx
+++ b/cbrunner/Parameters/Parameters_OnTheFly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE0CCBA-B85B-4085-B0AB-A82642D665DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952DD741-D6C4-441D-9D42-0568898B3CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="14616" xr2:uid="{041E4D32-1C7C-41E4-840D-0AC2661675FC}"/>
   </bookViews>
@@ -33,44 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Reference</t>
   </si>
   <si>
-    <t>Pa_Harvest_Sat</t>
-  </si>
-  <si>
-    <t>Pa_Harvest_Inflection</t>
-  </si>
-  <si>
-    <t>Pa_Harvest_Shape</t>
-  </si>
-  <si>
-    <t>Wind Inflection</t>
-  </si>
-  <si>
-    <t>Wind Saturation</t>
-  </si>
-  <si>
-    <t>Wind Shape</t>
-  </si>
-  <si>
-    <t>Disease Saturation</t>
-  </si>
-  <si>
-    <t>Disease Inflection</t>
-  </si>
-  <si>
-    <t>Disease Shape</t>
-  </si>
-  <si>
     <t>IBM Pareto Shape</t>
   </si>
   <si>
@@ -83,16 +53,7 @@
     <t>IBM Pareto Mort</t>
   </si>
   <si>
-    <t>Frost Pareto Shape</t>
-  </si>
-  <si>
-    <t>Frost Pareto Loc</t>
-  </si>
-  <si>
-    <t>Frost Pareto Scale</t>
-  </si>
-  <si>
-    <t>Frost Pareto Mort</t>
+    <t>Best Estimate</t>
   </si>
 </sst>
 </file>
@@ -163,9 +124,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +164,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -309,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,7 +412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -459,15 +420,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADD9834-BC2E-4E59-BBEA-2B1931149755}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -475,198 +438,67 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1.8</v>
       </c>
       <c r="C2" s="1">
-        <v>1.4999999999999999E-2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>400</v>
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-1E-3</v>
       </c>
       <c r="C3" s="1">
-        <v>400</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>-0.02</v>
-      </c>
-      <c r="C4">
-        <v>-0.04</v>
+        <v>1E-3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>125</v>
-      </c>
-      <c r="C6">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>-0.01</v>
-      </c>
-      <c r="C7">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="C8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>125</v>
-      </c>
-      <c r="C9">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>-0.01</v>
-      </c>
-      <c r="C10">
-        <v>-0.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>1.8</v>
-      </c>
-      <c r="C11">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>-1E-3</v>
-      </c>
-      <c r="C12">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1E-3</v>
-      </c>
-      <c r="C13">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.85</v>
-      </c>
-      <c r="C14">
-        <v>0.85</v>
-      </c>
+      <c r="C6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>3.25</v>
-      </c>
-      <c r="C15">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-      <c r="C16">
-        <v>-5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="C17">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>0.05</v>
-      </c>
-      <c r="C18">
-        <v>0.05</v>
-      </c>
+      <c r="C15"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
